--- a/medicine/Mort/Cimetière_militaire_Lancashire_Cottage/Cimetière_militaire_Lancashire_Cottage.xlsx
+++ b/medicine/Mort/Cimetière_militaire_Lancashire_Cottage/Cimetière_militaire_Lancashire_Cottage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_Lancashire_Cottage</t>
+          <t>Cimetière_militaire_Lancashire_Cottage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cimetière militaire Lancashire Cottage ou Lancashire Cottage Cemetery[1] est un cimetière militaire britannique des victimes de la Première Guerre mondiale, situé dans le village belge de Ploegsteert. Le cimetière est situé à 1 275 m à l'est du centre du village et à la lisière sud du bois de Ploegsteert. Elle a été conçue par Charles Holden et est entretenue par la Commonwealth War Graves Commission. Le site a une forme plus ou moins rectangulaire et est délimité par un mur de briques. La Croix du Sacrifice se dresse au centre contre le mur sud en face de l'entrée.
+Le cimetière militaire Lancashire Cottage ou Lancashire Cottage Cemetery est un cimetière militaire britannique des victimes de la Première Guerre mondiale, situé dans le village belge de Ploegsteert. Le cimetière est situé à 1 275 m à l'est du centre du village et à la lisière sud du bois de Ploegsteert. Elle a été conçue par Charles Holden et est entretenue par la Commonwealth War Graves Commission. Le site a une forme plus ou moins rectangulaire et est délimité par un mur de briques. La Croix du Sacrifice se dresse au centre contre le mur sud en face de l'entrée.
 Il y a 269 victimes enterrées, dont 3 non identifiées.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_Lancashire_Cottage</t>
+          <t>Cimetière_militaire_Lancashire_Cottage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière a été créé en novembre 1914 en tant que cimetière de première ligne par le 1st East Lancashire et le 1st Hampshire . Il a été utilisé jusqu'en mars 1916, à l'exception de quelques ajouts ultérieurs. Lors de l'offensive allemande du printemps, le cimetière est aux mains des Allemands du 10 avril 1918 au 29 septembre 1918. Ensuite, ils ont également enterré certaines de leurs victimes ici.
-On y trouve 231 Britanniques, 2 Canadiens, 23 Australiens et 13 Allemands. Deux Britanniques sont commémorés par des Special Memorials [2] car leurs tombes n'ont pas pu être localisées.
+On y trouve 231 Britanniques, 2 Canadiens, 23 Australiens et 13 Allemands. Deux Britanniques sont commémorés par des Special Memorials  car leurs tombes n'ont pas pu être localisées.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_Lancashire_Cottage</t>
+          <t>Cimetière_militaire_Lancashire_Cottage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Soldats distingués
-George Clayhills, capitaine du régiment de l'East Lancashire a reçu l'Ordre du service distingué (DSO).
-Le sergent F. Helm du East Lancashire Regiment a reçu la Médaille de conduite distinguée (DCM) et le caporal Henry Richard Collins du Devonshire Regiment a également reçu la Médaille militaire (DCM, MM).
-Personnel militaire mineur
-Harold Ewart Stenner, soldat du Gloucestershire Regiment n'avait que 16 ans lorsqu'il fut tué au combat le 1er mai 1915.
+          <t>Soldats distingués</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>George Clayhills, capitaine du régiment de l'East Lancashire a reçu l'Ordre du service distingué (DSO).
+Le sergent F. Helm du East Lancashire Regiment a reçu la Médaille de conduite distinguée (DCM) et le caporal Henry Richard Collins du Devonshire Regiment a également reçu la Médaille militaire (DCM, MM).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_Lancashire_Cottage</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_Lancashire_Cottage</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tombes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnel militaire mineur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Harold Ewart Stenner, soldat du Gloucestershire Regiment n'avait que 16 ans lorsqu'il fut tué au combat le 1er mai 1915.
 le clairon Morgan Dudley et les soldats Oliver H. Badman et Wilfred H. Dix avaient 17 ans lorsqu'ils sont morts.</t>
         </is>
       </c>
